--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -575,7 +575,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>45707</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45107</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>44337</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45602</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>44621</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44432</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>45713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45839.39023148148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>45630</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>44426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45635</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>45860.35701388889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>45667</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>45979.57586805556</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45609</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>45667</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>45678</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45630</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>45106</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44386</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45685</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>45839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>45635</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>45635</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44865</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>44336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>45891.6204050926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>45839</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>44295</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>44841</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>45825</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44518</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44432</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>45394</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44432</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44841</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>45609.88023148148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>45595</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>45081</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44784</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>44440</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>44719</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>45922.51494212963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>45937</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>45156</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44265</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>45071</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44648</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>45279</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44251</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44295</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44364</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44533</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44317</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44377</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44550</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44326</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44295</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44251</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44376</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44606</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>44462.52583333333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44326</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44462.95502314815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44958</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>45002</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>45160</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44866</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45280</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45107</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>45594.37393518518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>45247</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45589</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45728.59210648148</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45548.34542824074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>45155</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>44908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>45626</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44355</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>45660</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>44890</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>44897</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>44532</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>45558.69835648148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44258</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>45589</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44295</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44287</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45226</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44907</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45280</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45103</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>45545.53160879629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44277</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45729.46915509259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>45887.51891203703</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>45555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44989.42253472222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44734</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>44496</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>45707</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>44886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45702</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45697</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45890.58671296296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>45890.58930555556</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>45191</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>45758.6283912037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>45895.32173611111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>45815.60288194445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>45008</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>45895.32369212963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>45815.64054398148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>45029</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44978</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>45660</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>45818</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>45400</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44298</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>45899</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>45901.42756944444</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44917</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45899</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45715</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45899</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45679.39025462963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45107.45042824074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45602</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45904.57342592593</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45831</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45822</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44978</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>45697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>45545.60266203704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44505</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>45027</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>45916.64693287037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>45831.39336805556</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>45831.34668981482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>45918.66846064815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>45922.40936342593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>45635</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>45414</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>44606</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>44999</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>45001</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>45414</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>44298</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>45926.65700231482</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>45414</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>45414</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12400,7 +12400,7 @@
         <v>45681</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>45931.56010416667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>45931.6437962963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>45400</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>45722</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>45110</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>45769</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44546</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44350</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>45086</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44882</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44879</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>45247</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>45247</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>45491.64607638889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>45945.61237268519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>45849.47910879629</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>44914</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>45104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>45860.3481712963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>45860.35930555555</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>45679</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>45860.46853009259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>45634</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>45635</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>45860.37709490741</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>45953.42744212963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>45953.42755787037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>45824.78887731482</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>44999</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>45867</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>45869</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>45090</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>45804</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>45804</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>45804</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>45804</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44845</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>45868.5740162037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>45804</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44638</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>45804</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>45749.34060185185</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>45639</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>45959.43278935185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44234</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>45875.30196759259</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>45959.43510416667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44287</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>45961.37615740741</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44855.48153935185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>45259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45926</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44879</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>45635</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>45635</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45881.64329861111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>45966.56216435185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45966.56943287037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>45545.4500462963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>45974.67748842593</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>45974.67760416667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44989.40244212963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44322</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16200,7 +16200,7 @@
         <v>45979.61703703704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16257,7 +16257,7 @@
         <v>45139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>45979</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>45979</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>45980</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>45980</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>45980</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>45980</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45980</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>45980</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>44234</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>45327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>45980</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>44466</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>45980</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45982.6434375</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>45982.64435185185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45420</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>45625.53189814815</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45982.49006944444</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45982.63961805555</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45982.64233796296</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>45982.64745370371</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>46014</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17660,7 +17660,7 @@
         <v>45981.82354166666</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45986.48967592593</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>45986.49467592593</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17831,7 +17831,7 @@
         <v>45986.32143518519</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>45568</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>44657</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>44657</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>44657</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>45545.616875</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>45713.53717592593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45054</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>44546</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>44546</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>45198</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>45756.4490625</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>46034.63575231482</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>46034.5943287037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         <v>45414</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18701,7 +18701,7 @@
         <v>44298</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>45747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>46034.59423611111</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>46034.59425925926</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>46035.65704861111</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>45994</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>45713</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>44852</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>44969</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>45825</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>45678</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>45056</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44468</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>45726.77245370371</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44978</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>45548.34556712963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>45159</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>45775.50346064815</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19742,7 +19742,7 @@
         <v>44473</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>45999.57694444444</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>45034</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>46042.81972222222</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>44364</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>46043</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>45758.63265046296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>46003</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>46045.54577546296</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>44546</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>46002.44863425926</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>46045.54497685185</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>46043</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20570,7 +20570,7 @@
         <v>45630.53160879629</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20632,7 +20632,7 @@
         <v>46007.51100694444</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45594.4621412037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         <v>44797</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20803,7 +20803,7 @@
         <v>44719</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20860,7 +20860,7 @@
         <v>45219.96467592593</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20922,7 +20922,7 @@
         <v>44869</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>44841</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>45611</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>45371</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>45376</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>45371</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>44841</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44917.53623842593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>45817</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>45371</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>45371</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21569,7 +21569,7 @@
         <v>45491.64728009259</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>45155</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44916</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44994</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44538</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44978</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45056</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>45177</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44719</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44918.35616898148</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22159,7 +22159,7 @@
         <v>45548.34501157407</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         <v>45420</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22278,7 +22278,7 @@
         <v>45162</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>45520.43614583334</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>45722.55241898148</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>44834</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22521,7 +22521,7 @@
         <v>45609.59013888889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44496</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>45002</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44796</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>45709.53199074074</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>45602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>45029</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>45589</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44719</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>45520.50972222222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>45400</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>45559</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>45602</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23339,7 +23339,7 @@
         <v>45518.58706018519</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>45568</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23453,7 +23453,7 @@
         <v>45198</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23510,7 +23510,7 @@
         <v>45681.34489583333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44974</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44890</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
         <v>45043</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>45159.94234953704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>45635</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>45124</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45713.53248842592</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45713.5396412037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45660</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45758.63540509259</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44925.93988425926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>44895</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>44992</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44984</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45665</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
         <v>45548.34546296296</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24509,7 +24509,7 @@
         <v>45722.44828703703</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>45626</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>45626</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>45700.5778587963</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>45063</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>45306</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>45520.44297453704</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24975,7 +24975,7 @@
         <v>45520.44971064815</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45447</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45728.65733796296</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44731</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44531</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44935.45384259259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>45182</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>45163</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>45697</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>45783.5943287037</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>45782.44907407407</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25622,7 +25622,7 @@
         <v>45782.44856481482</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>45634</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>45364.59172453704</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>45400</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>45709</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44900</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44866</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>45794</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>45796.65622685185</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>45794</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>45795.8047337963</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>45795.49415509259</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -575,7 +575,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>45707</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45107</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>44337</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45602</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>44621</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44432</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>45713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45839.39023148148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>45630</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>44426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45635</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>45860.35701388889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>45667</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>45979.57586805556</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45609</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>45667</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>45678</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45630</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>45106</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44386</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45685</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>45839</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>45635</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>45635</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44865</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>44336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>45891.6204050926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>45839</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>44295</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>44841</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>45825</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44518</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44432</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>45394</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44432</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44841</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>45609.88023148148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>45595</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>45081</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44784</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>44440</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>44719</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>45922.51494212963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>45937</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>45156</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44265</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>45071</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44648</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>45279</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44251</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44295</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44364</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44533</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44317</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44377</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44550</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44326</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44295</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44251</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44376</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44606</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>44462.52583333333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44326</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44462.95502314815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44958</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>45002</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>45160</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44866</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45280</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45107</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>45594.37393518518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>45247</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45589</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45728.59210648148</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45548.34542824074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>45155</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>44908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>45626</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44355</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>45660</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>44890</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>44897</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>44532</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>45558.69835648148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44258</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>45589</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44295</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44287</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>44841</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45226</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44907</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45280</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45103</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>45545.53160879629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>44277</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45729.46915509259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>45887.51891203703</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>45555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44989.42253472222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44734</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>44496</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>45707</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>44886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45702</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45697</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45890.58671296296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>45890.58930555556</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>45191</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>45758.6283912037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>45895.32173611111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>45815.60288194445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>45008</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>45895.32369212963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>45815.64054398148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>45029</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44978</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>45660</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>45818</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>45400</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44298</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>45899</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>45901.42756944444</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>44917</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45899</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45715</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45899</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45679.39025462963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45107.45042824074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45602</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45904.57342592593</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45831</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45822</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44978</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>45697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>45545.60266203704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44505</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>45027</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>45916.64693287037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>45831.39336805556</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>45831.34668981482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>45918.66846064815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>45922.40936342593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>45635</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>45414</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>44606</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>44999</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>45001</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>45414</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>44298</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>45926.65700231482</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>45414</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>45414</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12400,7 +12400,7 @@
         <v>45681</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>45931.56010416667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>45931.6437962963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>45400</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>45722</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>45110</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>45769</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>44546</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>44350</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>45086</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44882</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44879</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>45247</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>45247</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>45491.64607638889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>45945.61237268519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>45849.47910879629</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>44914</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>45104</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>45860.3481712963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>45860.35930555555</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>45679</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>45860.46853009259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>45634</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>45635</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>45860.37709490741</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>45953.42744212963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>45953.42755787037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>45824.78887731482</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>44999</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>45867</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>45869</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>45090</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>45804</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>45804</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>45804</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>45804</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44845</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>45868.5740162037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>45804</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44638</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>45804</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>45749.34060185185</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>45639</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>45959.43278935185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44234</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>45875.30196759259</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>45959.43510416667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44287</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>45961.37615740741</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44855.48153935185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>45259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45926</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44879</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>45635</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>45635</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45881.64329861111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>45966.56216435185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45966.56943287037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>45545.4500462963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>45974.67748842593</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>45974.67760416667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44989.40244212963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44322</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16200,7 +16200,7 @@
         <v>45979.61703703704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16257,7 +16257,7 @@
         <v>45139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>45979</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>45979</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>45980</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>45980</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>45980</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>45980</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44326</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45980</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>45980</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>44234</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>45327</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>45980</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>44466</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>45980</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45982.6434375</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>45982.64435185185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45420</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>45625.53189814815</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45982.49006944444</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45982.63961805555</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45982.64233796296</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>45982.64745370371</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>46014</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17660,7 +17660,7 @@
         <v>45981.82354166666</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45986.48967592593</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>45986.49467592593</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17831,7 +17831,7 @@
         <v>45986.32143518519</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>45568</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>44657</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>44657</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>44657</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>45545.616875</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>45713.53717592593</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45054</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>44546</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>44546</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>45198</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>45756.4490625</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>46034.63575231482</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>46034.5943287037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         <v>45414</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18701,7 +18701,7 @@
         <v>44298</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>45747</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>46034.59423611111</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>46034.59425925926</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>46035.65704861111</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>45994</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>45713</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>44852</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>44969</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>45825</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>45678</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>45056</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44468</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>45726.77245370371</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44978</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>45548.34556712963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>45159</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>45775.50346064815</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19742,7 +19742,7 @@
         <v>44473</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>45999.57694444444</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>45034</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>45154</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>46042.81972222222</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>44364</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>46043</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>45758.63265046296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>46003</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>46045.54577546296</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>44546</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>46002.44863425926</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>46045.54497685185</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>46043</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20570,7 +20570,7 @@
         <v>45630.53160879629</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20632,7 +20632,7 @@
         <v>46007.51100694444</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45594.4621412037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         <v>44797</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20803,7 +20803,7 @@
         <v>44719</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20860,7 +20860,7 @@
         <v>45219.96467592593</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20922,7 +20922,7 @@
         <v>44869</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>44841</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>45611</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>45371</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>45376</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>45371</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>44841</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44917.53623842593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>45817</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>45371</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>45371</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21569,7 +21569,7 @@
         <v>45491.64728009259</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>45155</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44916</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44994</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44538</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44978</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45056</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>45177</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44719</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44918.35616898148</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22159,7 +22159,7 @@
         <v>45548.34501157407</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         <v>45420</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22278,7 +22278,7 @@
         <v>45162</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>45520.43614583334</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>45722.55241898148</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>44834</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22521,7 +22521,7 @@
         <v>45609.59013888889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44496</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>45002</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44796</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>45709.53199074074</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>45602</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>45029</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>45589</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44719</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>45520.50972222222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>45400</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>45559</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>45602</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23339,7 +23339,7 @@
         <v>45518.58706018519</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>45568</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23453,7 +23453,7 @@
         <v>45198</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23510,7 +23510,7 @@
         <v>45681.34489583333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44974</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44890</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
         <v>45043</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>45159.94234953704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>45635</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>45124</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45713.53248842592</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45713.5396412037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45660</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45758.63540509259</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44925.93988425926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>44895</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>44992</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44984</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45665</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
         <v>45548.34546296296</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24509,7 +24509,7 @@
         <v>45722.44828703703</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>45626</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>45626</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>45700.5778587963</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>45063</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>45306</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>45520.44297453704</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24975,7 +24975,7 @@
         <v>45520.44971064815</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45447</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45728.65733796296</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44731</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44531</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44935.45384259259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>45182</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>45163</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>45697</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>45783.5943287037</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>45782.44907407407</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25622,7 +25622,7 @@
         <v>45782.44856481482</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>45634</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44992</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>45364.59172453704</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>45400</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>45709</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44900</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44866</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>45794</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>45796.65622685185</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>45794</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>45795.8047337963</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>45795.49415509259</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -575,7 +575,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>45707</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45107</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>44337</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45602</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>44621</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44432</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>45713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45839.39023148148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>45630</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>44426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45635</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>45860.35701388889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>45667</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>45979.57586805556</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45609</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>45667</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>45678</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45630</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>45106</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44386</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45685</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>45635</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>45635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>45839</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>45635</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44865</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>44336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>45891.6204050926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>45839</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>44295</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>44841</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>45825</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44518</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44432</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>45394</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44432</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44841</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>45609.88023148148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>45595</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>45081</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44784</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>44440</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>44719</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>45922.51494212963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>45937</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>45156</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44265</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>45071</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44648</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>45279</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44251</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44295</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44364</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44533</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44317</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44377</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44550</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44326</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>44867</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44295</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44251</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44376</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44606</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>44462.52583333333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44326</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44462.95502314815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44958</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>45002</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>45280</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>45160</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45107</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>45594.37393518518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>45247</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44866</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45589</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45728.59210648148</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45548.34542824074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>45155</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45626</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44355</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>45660</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>44890</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>44897</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>44532</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>44258</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>44295</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44841</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44287</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>45226</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45558.69835648148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>44907</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45280</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45103</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>45545.53160879629</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>45729.46915509259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44277</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>45555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44989.42253472222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>45589</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>45702</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>45191</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>45815.64054398148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>45758.6283912037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>45818</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45008</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>45697</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>45029</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>45887.51891203703</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>44978</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45660</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>45400</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>44298</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45679.39025462963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>45822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>45107.45042824074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10127,7 +10127,7 @@
         <v>44439</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>45602</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>45890.58671296296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>45890.58930555556</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>45895.32173611111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>45831.39336805556</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>45831.34668981482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>45895.32369212963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44978</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>45414</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>45697</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>45899</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>45545.60266203704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>45901.42756944444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>45414</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44917</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45027</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45899</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>45715</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>45069</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>45899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>45414</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>45414</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>45635</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>45904.57342592593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>45831</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44606</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>44999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>45001</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>44298</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>45916.64693287037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>45681</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>45849.47910879629</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>45918.66846064815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>45722</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>45922.40936342593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>45860.3481712963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>45860.35930555555</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>45110</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>45860.46853009259</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>45860.37709490741</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45769</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>45824.78887731482</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>45867</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>45869</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>45804</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>45804</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>45804</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>45804</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44546</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>45868.5740162037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>45804</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44350</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>45086</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44882</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>45804</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>45926.65700231482</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44879</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>45247</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>45247</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>45931.56010416667</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>45875.30196759259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>45491.64607638889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>45931.6437962963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>45400</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44914</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>45104</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>45881.64329861111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14165,7 +14165,7 @@
         <v>45679</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>45634</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>45635</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>44999</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>44845</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>44638</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>45945.61237268519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>45749.34060185185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>44287</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44855.48153935185</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>45259</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>45953.42744212963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>45953.42755787037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44879</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>45635</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>45635</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>45639</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>45959.43278935185</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>45959.43510416667</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>45545.4500462963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>45961.37615740741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44989.40244212963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>45926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44322</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>45139</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>45414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45966.56216435185</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>44326</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45966.56943287037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45327</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>44466</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45420</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45625.53189814815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>45974.67748842593</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>45974.67760416667</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45979.61703703704</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44657</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44657</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>45979</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>45980</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>45980</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>45980</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45980</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44657</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>45980</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>45545.616875</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>45980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>45980</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>45980</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>45713.53717592593</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>45054</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>45982.6434375</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45982.64435185185</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>44546</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>44546</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45198</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45756.4490625</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45982.49006944444</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45982.63961805555</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>45982.64233796296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45982.64745370371</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>46014</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45981.82354166666</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
         <v>45986.48967592593</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>45986.49467592593</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>45414</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44298</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>45747</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>45986.32143518519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18359,7 +18359,7 @@
         <v>44852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18416,7 +18416,7 @@
         <v>46034.63575231482</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>44969</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>46034.5943287037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         <v>44468</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18701,7 +18701,7 @@
         <v>46034.59423611111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>46034.59425925926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>45726.77245370371</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>46035.65704861111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>45994</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>45713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>44978</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>45548.34556712963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>45159</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19224,7 +19224,7 @@
         <v>45825</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19286,7 +19286,7 @@
         <v>45678</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         <v>45775.50346064815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>44473</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>45154</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44364</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>45999.57694444444</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>45758.63265046296</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>46042.81972222222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>44546</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>46043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>46003</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>45630.53160879629</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>46002.44863425926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>46043</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>45594.4621412037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>46007.51100694444</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>44797</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>44719</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>45219.96467592593</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>44869</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20518,7 +20518,7 @@
         <v>44841</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>44841</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20632,7 +20632,7 @@
         <v>45611</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20694,7 +20694,7 @@
         <v>45371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>44917.53623842593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>45376</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45371</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>45817</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>45371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>45371</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>45491.64728009259</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>46062.594375</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>45155</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44916</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44994</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44538</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>46045.54497685185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44978</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>46045.54577546296</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         <v>45056</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21703,7 +21703,7 @@
         <v>45177</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44719</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>44918.35616898148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>45548.34501157407</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>45420</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>45162</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>46072.56574074074</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>45520.43614583334</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>45722.55241898148</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44834</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>45609.59013888889</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44496</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>45002</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
         <v>44796</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>45709.53199074074</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44719</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>45602</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>45029</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>45589</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45520.50972222222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45400</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>45559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>45602</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23116,7 +23116,7 @@
         <v>45518.58706018519</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>45568</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>45198</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>45681.34489583333</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23349,7 +23349,7 @@
         <v>44974</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>44890</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>45159.94234953704</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45635</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>45713.53248842592</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>45713.5396412037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>45660</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>45758.63540509259</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
         <v>44925.93988425926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44895</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44992</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45665</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45548.34546296296</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45722.44828703703</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45626</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>45626</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>45700.5778587963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44893</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>45306</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>45520.44297453704</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>45520.44971064815</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         <v>45447</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24871,7 +24871,7 @@
         <v>45728.65733796296</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24933,7 +24933,7 @@
         <v>44731</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24990,7 +24990,7 @@
         <v>44531</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25047,7 +25047,7 @@
         <v>44935.45384259259</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25104,7 +25104,7 @@
         <v>45182</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>45163</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>45697</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25280,7 +25280,7 @@
         <v>45783.5943287037</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>45782.44907407407</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>45782.44856481482</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>45634</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25518,7 +25518,7 @@
         <v>44992</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25575,7 +25575,7 @@
         <v>45364.59172453704</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>45400</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>45709</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>44866</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>45794</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>45796.65622685185</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>45794</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>45795.8047337963</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>45795.49415509259</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>44496</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26207,7 +26207,7 @@
         <v>45707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26264,7 +26264,7 @@
         <v>44886</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>45815.60288194445</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -575,7 +575,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>45707</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45107</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>44337</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45602</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>44621</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44432</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>45713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45839.39023148148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>45630</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>44426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45635</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>45860.35701388889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>45667</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>45979.57586805556</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45609</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>45667</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>45678</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45630</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>45106</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44386</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45685</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>45635</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>45635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>45839</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>45635</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44865</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>44336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>45891.6204050926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>45839</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>44295</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>44841</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>45825</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44518</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44432</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>45394</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44432</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44841</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>45609.88023148148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>45595</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>45081</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44784</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>44440</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>44719</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>45922.51494212963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>45937</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>45156</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44265</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>45071</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44648</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>45279</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44251</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44295</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44272</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44364</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44533</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44317</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44377</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44550</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44326</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>44867</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44295</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44251</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44376</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44606</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>44462.52583333333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44326</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44462.95502314815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>44958</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>45002</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>45280</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>45160</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45107</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>45594.37393518518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>45247</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44866</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45589</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45728.59210648148</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45548.34542824074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>45155</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>45626</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44355</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>45660</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>44890</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>44897</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>44532</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>44518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>44258</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>44295</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44841</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44287</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>45226</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45558.69835648148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>44907</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45280</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45103</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>45545.53160879629</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>45729.46915509259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44277</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>44734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>45555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>44989.42253472222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>45589</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>45702</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>45191</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>45815.64054398148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>45758.6283912037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>45818</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45008</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>45697</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>45029</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>45887.51891203703</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>44978</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45660</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>45400</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>44298</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45679.39025462963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>45822</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>45107.45042824074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10127,7 +10127,7 @@
         <v>44439</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>45602</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>45890.58671296296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>45890.58930555556</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>45895.32173611111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>45831.39336805556</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>45831.34668981482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>45895.32369212963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44978</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>45414</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>45697</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>45899</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>45545.60266203704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>45901.42756944444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>45414</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44505</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44917</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45027</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45899</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>45715</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>45069</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>45899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>45414</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>45414</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>45635</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>45904.57342592593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>45831</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44606</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>44999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>45001</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>44298</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>45916.64693287037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>45681</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>45849.47910879629</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>45918.66846064815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>45722</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>45922.40936342593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>45860.3481712963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>45860.35930555555</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>45110</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>45860.46853009259</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>45860.37709490741</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45769</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>45824.78887731482</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>45867</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>45869</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>45804</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>45804</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>45804</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>45804</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44546</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>45868.5740162037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>45804</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44350</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>45086</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44882</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>45804</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>45926.65700231482</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44879</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>45247</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>45247</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>45931.56010416667</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>45875.30196759259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>45491.64607638889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>45931.6437962963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>45400</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>44914</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>45104</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>45881.64329861111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14165,7 +14165,7 @@
         <v>45679</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>45634</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>45635</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>44999</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>45090</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>44845</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>44638</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>45945.61237268519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>45749.34060185185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>44287</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44855.48153935185</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>45259</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>45953.42744212963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>45953.42755787037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44879</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>45635</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>45635</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>45639</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>45959.43278935185</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>45959.43510416667</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>45545.4500462963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>45961.37615740741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44989.40244212963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>45926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44322</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>45139</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>45414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45966.56216435185</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>44326</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45966.56943287037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45327</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>44466</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45420</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45625.53189814815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>45974.67748842593</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>45974.67760416667</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45568</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45979.61703703704</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>44657</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44657</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>45979</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>45980</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>45980</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>45980</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45980</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44657</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>45980</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>45545.616875</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>45980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>45980</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>45980</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>45713.53717592593</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>45054</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>45982.6434375</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45982.64435185185</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>44546</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>44546</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45198</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45756.4490625</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45982.49006944444</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45982.63961805555</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>45982.64233796296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45982.64745370371</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>46014</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45981.82354166666</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
         <v>45986.48967592593</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>45986.49467592593</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>45414</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44298</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>45747</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>45986.32143518519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18359,7 +18359,7 @@
         <v>44852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18416,7 +18416,7 @@
         <v>46034.63575231482</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>44969</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>46034.5943287037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>45056</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         <v>44468</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18701,7 +18701,7 @@
         <v>46034.59423611111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>46034.59425925926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>45726.77245370371</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>46035.65704861111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>45994</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>45713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>44978</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>45548.34556712963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>45159</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19224,7 +19224,7 @@
         <v>45825</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19286,7 +19286,7 @@
         <v>45678</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         <v>45775.50346064815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>44473</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>45154</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44364</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>45999.57694444444</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>45758.63265046296</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>46042.81972222222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>44546</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>46043</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>46003</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>45630.53160879629</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>46002.44863425926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>46043</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>45594.4621412037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>46007.51100694444</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>44797</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>44719</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>45219.96467592593</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>44869</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20518,7 +20518,7 @@
         <v>44841</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>44841</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20632,7 +20632,7 @@
         <v>45611</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20694,7 +20694,7 @@
         <v>45371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>44917.53623842593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>45376</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45371</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>45817</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>45371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>45371</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>45491.64728009259</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>46062.594375</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>45155</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44916</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44994</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44538</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>46045.54497685185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44978</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>46045.54577546296</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         <v>45056</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21703,7 +21703,7 @@
         <v>45177</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44719</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>44918.35616898148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>45548.34501157407</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>45420</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>45162</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>46072.56574074074</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>45520.43614583334</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>45722.55241898148</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44834</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>45609.59013888889</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44496</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>45002</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
         <v>44796</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>45709.53199074074</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44719</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>45602</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>45029</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>45589</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44719</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45520.50972222222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45400</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>45559</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>45602</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23116,7 +23116,7 @@
         <v>45518.58706018519</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>45568</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>45198</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>45681.34489583333</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23349,7 +23349,7 @@
         <v>44974</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>44890</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>45043</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>45159.94234953704</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>45635</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>45124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>45713.53248842592</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>45713.5396412037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>45660</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>45758.63540509259</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
         <v>44925.93988425926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44895</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44992</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45665</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45548.34546296296</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45722.44828703703</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45626</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>45626</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>45700.5778587963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44893</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>45306</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>45520.44297453704</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>45520.44971064815</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         <v>45447</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24871,7 +24871,7 @@
         <v>45728.65733796296</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24933,7 +24933,7 @@
         <v>44731</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24990,7 +24990,7 @@
         <v>44531</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25047,7 +25047,7 @@
         <v>44935.45384259259</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25104,7 +25104,7 @@
         <v>45182</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>45163</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>45697</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25280,7 +25280,7 @@
         <v>45783.5943287037</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>45782.44907407407</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>45782.44856481482</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>45634</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25518,7 +25518,7 @@
         <v>44992</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25575,7 +25575,7 @@
         <v>45364.59172453704</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>45400</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>45709</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>44900</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>44866</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>45794</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>45796.65622685185</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>45794</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>45795.8047337963</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>45795.49415509259</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>44496</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26207,7 +26207,7 @@
         <v>45707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26264,7 +26264,7 @@
         <v>44886</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>45815.60288194445</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -575,7 +575,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>45707</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>45085</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45107</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>44337</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45602</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>44621</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>44432</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44370</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45713</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45839.39023148148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>45630</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>44426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45635</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>45860.35701388889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>45667</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>45979.57586805556</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45609</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>45667</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>45678</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45630</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>45106</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44386</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45685</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>45635</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>45635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>45635</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>45839</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44865</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>44336</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>45891.6204050926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>45839</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>44295</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>44518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>44841</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>45825</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44432</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>45394</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44432</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45081</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>45595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>44841</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45609.88023148148</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44784</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>44440</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>44719</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>45156</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>45922.51494212963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>44265</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>44648</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>45071</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>45937</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>45279</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44295</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44272</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44364</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44851</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>44317</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44326</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44867</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44867</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44355</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44295</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44376</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44606</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>44462.52583333333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44326</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44501</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44364</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44295</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>45043</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44834</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>45729.46915509259</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>45775.50346064815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44935.45384259259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44298</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44258</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>45400</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>45756.4490625</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>45747</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>45400</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44958</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>45520.43614583334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44978</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>45110</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>44895</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>45491.64607638889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>45634</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>45635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>45280</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44916</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>45660</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44496</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44908</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>45198</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45887.51891203703</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44886</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>45890.58930555556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44907</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44866</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>45890.58671296296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>45008</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45815.60288194445</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>45815.64054398148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>45818</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>45056</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>45247</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>45822</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>44473</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45589</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>45895.32369212963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>45895.32173611111</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>44719</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>45709.53199074074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45715</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45899</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45899</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>45901.42756944444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>44917</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>45054</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>45899</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>45904.57342592593</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>45831</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>45831.34668981482</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>45831.39336805556</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>45414</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>45414</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>45414</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>45414</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>45713.53248842592</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>45713.5396412037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44992</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45769</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>44505</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45626</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>44890</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>44797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>44978</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>45609.59013888889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>45594.37393518518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>45414</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>45002</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>44518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>45849.47910879629</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>45027</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>44999</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>44999</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>45520.44971064815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45916.64693287037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>45860.46853009259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>45860.35930555555</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>45860.37709490741</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>45860.3481712963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>45918.66846064815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>44734</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>45804</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>45804</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44350</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>45922.40936342593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>45163</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>45824.78887731482</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>45804</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>45804</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>45804</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>45722</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>45867</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>45868.5740162037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>45804</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44719</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>45926.65700231482</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>45869</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>45660</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>45728.65733796296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>44719</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>44322</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>45625.53189814815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>44989.42253472222</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>45726.77245370371</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>45875.30196759259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>45086</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>45545.60266203704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>45931.56010416667</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>45931.6437962963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>45191</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>45881.64329861111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>45713.53717592593</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>45400</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44879</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45681</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>44355</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>45758.63265046296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>45758.63540509259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>45001</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>45700.5778587963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>45491.64728009259</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>45306</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44532</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>45226</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>45945.61237268519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44879</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44462.95502314815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>45182</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>45280</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44841</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44855.48153935185</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44466</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>45555</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>45219.96467592593</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>45953.42744212963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>45953.42755787037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44538</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>45559</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45104</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44531</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>45069</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>45639</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44969</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45959.43278935185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>45959.43510416667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15915,7 +15915,7 @@
         <v>45548.34501157407</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>44298</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45961.37615740741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45966.56216435185</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>45966.56943287037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>45568</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44918.35616898148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>45414</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>44914</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>45447</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16505,7 +16505,7 @@
         <v>45974.67748842593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16562,7 +16562,7 @@
         <v>45139</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45974.67760416667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>45124</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
         <v>45247</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         <v>45247</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16852,7 +16852,7 @@
         <v>45635</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16909,7 +16909,7 @@
         <v>45635</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45660</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45665</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45980</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>45980</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17199,7 +17199,7 @@
         <v>45980</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         <v>45980</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>45980</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>45979.61703703704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45980</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>45979</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>44546</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45980</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45979</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45980</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45982.63961805555</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17831,7 +17831,7 @@
         <v>45982.64233796296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>45982.64745370371</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45982.49006944444</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
         <v>44496</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>45982.6434375</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45982.64435185185</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>45981.82354166666</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>46014</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>45986.32143518519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18369,7 +18369,7 @@
         <v>45589</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18426,7 +18426,7 @@
         <v>45162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>45986.48967592593</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>45986.49467592593</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>45029</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>44546</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45594.4621412037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45558.69835648148</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>45722.44828703703</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>45678</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>45994</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>44989.40244212963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>45056</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>45518.58706018519</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>45825</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>45159.94234953704</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>45177</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>45198</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>45713</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19482,7 +19482,7 @@
         <v>45545.616875</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19539,7 +19539,7 @@
         <v>45999.57694444444</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>46042.81972222222</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>44546</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>44546</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45034</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>46043</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>46002.44863425926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>46043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>46003</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44287</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45159</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>45154</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>46007.51100694444</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>45697</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>45697</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>45681.34489583333</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>45702</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>44719</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>45107.45042824074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>44796</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>44731</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44657</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44439</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>45371</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>45371</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45371</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>45758.6283912037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>45376</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>45679</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>45817</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>46062.594375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44638</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44841</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44893</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44869</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         <v>46072.56574074074</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21703,7 +21703,7 @@
         <v>46045.54577546296</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>46034.59423611111</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>46034.5943287037</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>46034.63575231482</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>44974</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>46034.59425925926</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>45520.44297453704</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>45520.50972222222</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>45602</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>45548.34542824074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44845</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>44925.93988425926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>45002</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>46045.54497685185</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44606</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45568</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>46035.65704861111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>46078.36523148148</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>45420</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>45063</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>45611</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44994</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>45926</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45602</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>44882</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>45722.55241898148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44978</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45548.34556712963</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23421,7 +23421,7 @@
         <v>44468</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23478,7 +23478,7 @@
         <v>45626</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23535,7 +23535,7 @@
         <v>45626</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>45029</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23649,7 +23649,7 @@
         <v>45630.53160879629</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         <v>44287</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44890</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44917.53623842593</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>44298</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23954,7 +23954,7 @@
         <v>45327</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>45602</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24068,7 +24068,7 @@
         <v>44897</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24125,7 +24125,7 @@
         <v>45420</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24182,7 +24182,7 @@
         <v>45160</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24244,7 +24244,7 @@
         <v>44984</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
         <v>44657</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24358,7 +24358,7 @@
         <v>44657</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24415,7 +24415,7 @@
         <v>44841</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24472,7 +24472,7 @@
         <v>45635</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45749.34060185185</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>44978</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         <v>45589</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24700,7 +24700,7 @@
         <v>44277</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24757,7 +24757,7 @@
         <v>45545.53160879629</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         <v>44326</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24871,7 +24871,7 @@
         <v>45545.4500462963</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24928,7 +24928,7 @@
         <v>45679.39025462963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>45155</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25047,7 +25047,7 @@
         <v>45090</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25104,7 +25104,7 @@
         <v>45155</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25166,7 +25166,7 @@
         <v>45635</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>45728.59210648148</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25280,7 +25280,7 @@
         <v>45548.34546296296</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>45697</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>45782.44856481482</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>45782.44907407407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>45783.5943287037</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>45634</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         <v>44992</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>45364.59172453704</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>45400</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>45709</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44900</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44866</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         <v>45794</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26041,7 +26041,7 @@
         <v>45795.8047337963</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26098,7 +26098,7 @@
         <v>45794</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>45795.49415509259</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26212,7 +26212,7 @@
         <v>45796.65622685185</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26269,7 +26269,7 @@
         <v>45707</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
